--- a/public/templates/template_KBRS.xlsx
+++ b/public/templates/template_KBRS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\kbrstunting\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFAEEA1-2A04-4916-8D9D-533B2C053151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B63F1E-33FD-4BF9-9113-70696C0CA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6A36F024-CE96-4B7C-84C2-FA60E6083DAB}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>NO.</t>
   </si>
   <si>
-    <t>[kd_kelurahan]</t>
-  </si>
-  <si>
     <t>[kode_keluarga]</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>[provinsi]</t>
+  </si>
+  <si>
+    <t>[kd_kecamatan]</t>
   </si>
 </sst>
 </file>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CBC2B2-1978-4EE3-B864-833C1F15EFA9}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -560,28 +560,28 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1</v>
